--- a/examples/my_iTRAQ_experiment.xlsx
+++ b/examples/my_iTRAQ_experiment.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="982" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="36">
   <si>
     <t xml:space="preserve">email</t>
   </si>
@@ -30,34 +30,10 @@
     <t xml:space="preserve">Kendal.Mintcake@footlights.ac.uk</t>
   </si>
   <si>
-    <t xml:space="preserve">model_fc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">norm_nitt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">norm_nburnin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">norm_nchain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">norm_nsamp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">model_nitt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">model_nburnin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">model_nchain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">model_nsamp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nworker</t>
+    <t xml:space="preserve">max_spectra_per_peptide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nbatch</t>
   </si>
   <si>
     <t xml:space="preserve">Run</t>
@@ -267,17 +243,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B7 A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.1074074074074"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="11.2703703703704"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.2703703703704"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.27"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -293,7 +269,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="n">
-        <v>1.05</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -301,80 +277,24 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>1000</v>
-      </c>
-    </row>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="Kendal.Mintcake@footlights.ac.uk"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -389,413 +309,413 @@
   </sheetPr>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="1" sqref="B7 C12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="1" width="11.2703703703704"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="7.84074074074074"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="1" width="11.2703703703704"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.2703703703704"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="1" width="11.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="7.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="1" width="11.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.27"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>113</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>114</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>115</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>116</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>117</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>118</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>119</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>121</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>113</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>114</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>115</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>116</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>117</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>118</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>119</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>121</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -810,22 +730,22 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="11.2703703703704"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.2703703703704"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="11.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.27"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -833,7 +753,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -841,7 +761,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -849,7 +769,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -857,7 +777,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -865,7 +785,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -873,7 +793,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1173,7 +1093,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
